--- a/Input/Files/A380.xlsx
+++ b/Input/Files/A380.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>Component:</t>
   </si>
@@ -39,42 +39,48 @@
     <t>Inputs:</t>
   </si>
   <si>
+    <t>Air density at sea level</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>Engine vertical pos on fuselage</t>
+  </si>
+  <si>
+    <t>Engine bypass ratio</t>
+  </si>
+  <si>
+    <t>Temperature at Inlet of Turbine</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Engine longitudinal pos on fuselage</t>
+  </si>
+  <si>
+    <t>Mechanical efficiency</t>
+  </si>
+  <si>
+    <t>Speed of sound at sea level</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
     <t>Cowling type</t>
   </si>
   <si>
     <t>partial</t>
   </si>
   <si>
-    <t>Air density at sea level</t>
-  </si>
-  <si>
-    <t>kg/m^3</t>
-  </si>
-  <si>
     <t>Nozzle efficiency</t>
   </si>
   <si>
-    <t>Temperature at Inlet of Turbine</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Speed of sound at sea level</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
     <t>Engine-LE stagger</t>
   </si>
   <si>
-    <t>Engine bypass ratio</t>
-  </si>
-  <si>
-    <t>Mechanical efficiency</t>
-  </si>
-  <si>
     <t>Cowling position</t>
   </si>
   <si>
@@ -145,6 +151,9 @@
   </si>
   <si>
     <t>Maximum takeoff weight</t>
+  </si>
+  <si>
+    <t>Thrust to Weight ratio</t>
   </si>
   <si>
     <t>Aircraft cruise altitude</t>
@@ -548,15 +557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -585,7 +594,10 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -594,64 +606,61 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>0.97</v>
+        <v>8.7100000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>1850</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>340.3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>-0.15</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>8.7100000000000009</v>
+        <v>340.3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -659,68 +668,65 @@
         <v>18</v>
       </c>
       <c r="C13" s="1">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>19</v>
       </c>
+      <c r="C14" s="1">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
       <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -728,7 +734,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="1">
-        <v>0.08</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -738,16 +744,16 @@
       <c r="C27" s="1">
         <v>0.6</v>
       </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -755,42 +761,42 @@
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
       <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="1">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2.11</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -798,10 +804,10 @@
         <v>36</v>
       </c>
       <c r="C36" s="1">
-        <v>8.41</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -809,138 +815,159 @@
         <v>37</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8.41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
       <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
       <c r="B46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="1">
-        <v>575000</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="1">
-        <v>10972</v>
-      </c>
-      <c r="D49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.84</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1">
-        <v>680</v>
+        <v>575000</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10972</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>46</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
+      <c r="C54" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1">
+        <v>680</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="1">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="1"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -948,15 +975,15 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C67" s="1">
         <v>4</v>
@@ -964,36 +991,36 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -1001,7 +1028,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C75" s="1">
         <v>0.93500000000000005</v>
@@ -1009,7 +1036,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C76" s="1">
         <v>7.52</v>
@@ -1017,7 +1044,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C77" s="1">
         <v>0.5</v>
@@ -1025,12 +1052,12 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Files/A380.xlsx
+++ b/Input/Files/A380.xlsx
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="1">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="1">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -769,7 +769,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -780,7 +780,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1">
-        <v>0.95</v>
+        <v>1.34</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -887,7 +887,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="1">
-        <v>575000</v>
+        <v>5640750</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
